--- a/phase 2 grading.xlsx
+++ b/phase 2 grading.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin\home\stoller\courses\distrib-sys-2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PREETHAM\Desktop\ACADEMIC\ds\project\dist_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8D32355-FA39-4913-B0EA-558F3D00C11F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D5597EE8-9C85-4157-BF17-34D90619189A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19425" yWindow="90" windowWidth="18030" windowHeight="20910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -263,7 +264,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -319,8 +320,29 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -339,6 +361,21 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="7">
     <border>
@@ -429,10 +466,13 @@
       </diagonal>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -451,16 +491,24 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="6" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -741,61 +789,61 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F83"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="74.85546875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="74.88671875" style="3" customWidth="1"/>
     <col min="2" max="2" width="6" style="3" customWidth="1"/>
-    <col min="3" max="3" width="7.42578125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="7.28515625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="3"/>
+    <col min="3" max="3" width="7.44140625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="7.33203125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="9.109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="19" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="21" t="s">
+      <c r="F2" s="19" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -803,7 +851,7 @@
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>36</v>
       </c>
@@ -811,12 +859,12 @@
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" s="4"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>62</v>
       </c>
@@ -824,53 +872,53 @@
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>38</v>
       </c>
       <c r="B7" s="4">
         <v>3</v>
       </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="C7" s="25"/>
+      <c r="D7"/>
+    </row>
+    <row r="8" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>35</v>
       </c>
       <c r="B8" s="4">
         <v>3</v>
       </c>
-      <c r="C8" s="18"/>
-      <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="C8" s="24"/>
+      <c r="D8"/>
+    </row>
+    <row r="9" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>60</v>
       </c>
       <c r="B9" s="4">
         <v>2</v>
       </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C9" s="25"/>
+      <c r="D9"/>
+    </row>
+    <row r="10" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" s="16" t="s">
         <v>61</v>
       </c>
       <c r="B10" s="4">
         <v>2</v>
       </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="4"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C10" s="25"/>
+      <c r="D10"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="14"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
     </row>
-    <row r="12" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>39</v>
       </c>
@@ -878,33 +926,33 @@
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>40</v>
       </c>
       <c r="B13" s="4">
         <v>3</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="C13" s="22"/>
+      <c r="D13"/>
+    </row>
+    <row r="14" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>59</v>
       </c>
       <c r="B14" s="4">
         <v>2</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="C14" s="21"/>
+      <c r="D14"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="4"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>41</v>
       </c>
@@ -912,43 +960,43 @@
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>48</v>
       </c>
       <c r="B17" s="4">
         <v>3</v>
       </c>
-      <c r="C17" s="1"/>
+      <c r="C17" s="21"/>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A18" s="16" t="s">
         <v>47</v>
       </c>
       <c r="B18" s="4">
         <v>1</v>
       </c>
-      <c r="C18" s="1"/>
+      <c r="C18" s="21"/>
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>49</v>
       </c>
       <c r="B19" s="4">
         <v>2</v>
       </c>
-      <c r="C19" s="1"/>
+      <c r="C19" s="22"/>
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>3</v>
       </c>
@@ -956,73 +1004,73 @@
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B22" s="4">
         <v>1</v>
       </c>
-      <c r="C22" s="4"/>
+      <c r="C22" s="21"/>
       <c r="D22" s="4"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>28</v>
       </c>
       <c r="B23" s="4">
         <v>1</v>
       </c>
-      <c r="C23" s="4"/>
+      <c r="C23" s="21"/>
       <c r="D23" s="4"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B24" s="4">
         <v>3</v>
       </c>
-      <c r="C24" s="4"/>
+      <c r="C24" s="21"/>
       <c r="D24" s="4"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>27</v>
       </c>
       <c r="B25" s="4">
         <v>2</v>
       </c>
-      <c r="C25" s="4"/>
+      <c r="C25" s="22"/>
       <c r="D25" s="4"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>25</v>
       </c>
       <c r="B26" s="4">
         <v>1</v>
       </c>
-      <c r="C26" s="4"/>
+      <c r="C26" s="21"/>
       <c r="D26" s="4"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B27" s="4">
         <v>1</v>
       </c>
-      <c r="C27" s="4"/>
+      <c r="C27" s="21"/>
       <c r="D27" s="4"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="5"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
     </row>
-    <row r="29" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
         <v>5</v>
       </c>
@@ -1030,53 +1078,53 @@
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
         <v>43</v>
       </c>
       <c r="B30" s="4">
         <v>2</v>
       </c>
-      <c r="C30" s="4"/>
+      <c r="C30" s="21"/>
       <c r="D30" s="4"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>46</v>
       </c>
       <c r="B31" s="4">
         <v>1</v>
       </c>
-      <c r="C31" s="4"/>
+      <c r="C31" s="21"/>
       <c r="D31" s="4"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A32" s="17" t="s">
         <v>44</v>
       </c>
       <c r="B32" s="4">
         <v>4</v>
       </c>
-      <c r="C32" s="4"/>
+      <c r="C32" s="21"/>
       <c r="D32" s="4"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>45</v>
       </c>
       <c r="B33" s="4">
         <v>1</v>
       </c>
-      <c r="C33" s="4"/>
+      <c r="C33" s="21"/>
       <c r="D33" s="4"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="11"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
     </row>
-    <row r="35" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
         <v>6</v>
       </c>
@@ -1084,73 +1132,73 @@
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B36" s="4">
         <v>1</v>
       </c>
-      <c r="C36" s="4"/>
+      <c r="C36" s="21"/>
       <c r="D36" s="4"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B37" s="4">
         <v>4</v>
       </c>
-      <c r="C37" s="4"/>
+      <c r="C37" s="21"/>
       <c r="D37" s="4"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B38" s="4">
         <v>1</v>
       </c>
-      <c r="C38" s="4"/>
+      <c r="C38" s="21"/>
       <c r="D38" s="4"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B39" s="4">
         <v>2</v>
       </c>
-      <c r="C39" s="4"/>
+      <c r="C39" s="21"/>
       <c r="D39" s="4"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B40" s="4">
         <v>2</v>
       </c>
-      <c r="C40" s="4"/>
+      <c r="C40" s="21"/>
       <c r="D40" s="4"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B41" s="4">
         <v>1</v>
       </c>
-      <c r="C41" s="4"/>
+      <c r="C41" s="21"/>
       <c r="D41" s="4"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
     </row>
-    <row r="43" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="12" t="s">
         <v>13</v>
       </c>
@@ -1158,23 +1206,23 @@
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
         <v>55</v>
       </c>
       <c r="B44" s="4">
         <v>4</v>
       </c>
-      <c r="C44" s="4"/>
+      <c r="C44" s="21"/>
       <c r="D44" s="4"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
     </row>
-    <row r="46" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="12" t="s">
         <v>14</v>
       </c>
@@ -1182,33 +1230,33 @@
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B47" s="4">
         <v>3</v>
       </c>
-      <c r="C47" s="4"/>
+      <c r="C47" s="21"/>
       <c r="D47" s="4"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B48" s="4">
         <v>2</v>
       </c>
-      <c r="C48" s="4"/>
+      <c r="C48" s="21"/>
       <c r="D48" s="4"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
     </row>
-    <row r="50" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>17</v>
       </c>
@@ -1216,73 +1264,73 @@
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B51" s="4">
         <v>2</v>
       </c>
-      <c r="C51" s="4"/>
+      <c r="C51" s="21"/>
       <c r="D51" s="4"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B52" s="4">
         <v>3</v>
       </c>
-      <c r="C52" s="4"/>
+      <c r="C52" s="22"/>
       <c r="D52" s="4"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B53" s="4">
         <v>2</v>
       </c>
-      <c r="C53" s="4"/>
+      <c r="C53" s="21"/>
       <c r="D53" s="4"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B54" s="4">
         <v>4</v>
       </c>
-      <c r="C54" s="4"/>
+      <c r="C54" s="21"/>
       <c r="D54" s="4"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B55" s="4">
         <v>2</v>
       </c>
-      <c r="C55" s="4"/>
+      <c r="C55" s="21"/>
       <c r="D55" s="4"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B56" s="4">
         <v>2</v>
       </c>
-      <c r="C56" s="4"/>
+      <c r="C56" s="21"/>
       <c r="D56" s="4"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
     </row>
-    <row r="58" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>23</v>
       </c>
@@ -1290,23 +1338,23 @@
       <c r="C58" s="4"/>
       <c r="D58" s="4"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
         <v>34</v>
       </c>
       <c r="B59" s="4">
         <v>3</v>
       </c>
-      <c r="C59" s="4"/>
+      <c r="C59" s="21"/>
       <c r="D59" s="4"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
     </row>
-    <row r="61" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>66</v>
       </c>
@@ -1314,53 +1362,53 @@
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B62" s="4">
         <v>1</v>
       </c>
-      <c r="C62" s="4"/>
+      <c r="C62" s="21"/>
       <c r="D62" s="4"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
         <v>35</v>
       </c>
       <c r="B63" s="4">
         <v>3</v>
       </c>
-      <c r="C63" s="4"/>
+      <c r="C63" s="20"/>
       <c r="D63" s="4"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A64" s="5" t="s">
         <v>58</v>
       </c>
       <c r="B64" s="4">
         <v>1</v>
       </c>
-      <c r="C64" s="4"/>
+      <c r="C64" s="20"/>
       <c r="D64" s="4"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A65" s="13" t="s">
         <v>51</v>
       </c>
       <c r="B65" s="4">
         <v>3</v>
       </c>
-      <c r="C65" s="4"/>
+      <c r="C65" s="22"/>
       <c r="D65" s="4"/>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="7"/>
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
       <c r="D66" s="4"/>
     </row>
-    <row r="67" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>50</v>
       </c>
@@ -1368,23 +1416,23 @@
       <c r="C67" s="4"/>
       <c r="D67" s="4"/>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
         <v>70</v>
       </c>
       <c r="B68" s="4">
         <v>3</v>
       </c>
-      <c r="C68" s="4"/>
+      <c r="C68" s="22"/>
       <c r="D68" s="4"/>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="7"/>
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
       <c r="D69" s="4"/>
     </row>
-    <row r="70" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="9" t="s">
         <v>52</v>
       </c>
@@ -1392,43 +1440,43 @@
       <c r="C70" s="4"/>
       <c r="D70" s="4"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
         <v>56</v>
       </c>
       <c r="B71" s="4">
         <v>3</v>
       </c>
-      <c r="C71" s="18"/>
+      <c r="C71" s="23"/>
       <c r="D71" s="4"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A72" s="5" t="s">
         <v>68</v>
       </c>
       <c r="B72" s="4">
         <v>7</v>
       </c>
-      <c r="C72" s="18"/>
+      <c r="C72" s="23"/>
       <c r="D72" s="4"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A73" s="5" t="s">
         <v>57</v>
       </c>
       <c r="B73" s="4">
         <v>3</v>
       </c>
-      <c r="C73" s="18"/>
+      <c r="C73" s="23"/>
       <c r="D73" s="4"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="5"/>
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
       <c r="D74" s="4"/>
     </row>
-    <row r="75" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>53</v>
       </c>
@@ -1436,7 +1484,7 @@
       <c r="C75" s="4"/>
       <c r="D75" s="4"/>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
         <v>64</v>
       </c>
@@ -1444,7 +1492,7 @@
       <c r="C76" s="4"/>
       <c r="D76" s="4"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
         <v>67</v>
       </c>
@@ -1452,7 +1500,7 @@
       <c r="C77" s="8"/>
       <c r="D77" s="8"/>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="7" t="s">
         <v>69</v>
       </c>
@@ -1460,7 +1508,7 @@
       <c r="C78" s="4"/>
       <c r="D78" s="4"/>
     </row>
-    <row r="79" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>0</v>
       </c>
@@ -1477,15 +1525,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="19" t="s">
+    <row r="81" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="B81" s="19"/>
-      <c r="C81" s="19"/>
-      <c r="D81" s="19"/>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B81" s="26"/>
+      <c r="C81" s="26"/>
+      <c r="D81" s="26"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="2"/>
     </row>
   </sheetData>

--- a/phase 2 grading.xlsx
+++ b/phase 2 grading.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PREETHAM\Desktop\ACADEMIC\ds\project\dist_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D5597EE8-9C85-4157-BF17-34D90619189A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF61CC9C-20AD-4FE1-BB3D-912E96D89337}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -789,21 +788,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C64" sqref="C64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="74.88671875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="74.85546875" style="3" customWidth="1"/>
     <col min="2" max="2" width="6" style="3" customWidth="1"/>
-    <col min="3" max="3" width="7.44140625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="7.33203125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="9.109375" style="3"/>
+    <col min="3" max="3" width="7.42578125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="7.28515625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>65</v>
       </c>
@@ -823,7 +822,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -843,7 +842,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -851,7 +850,7 @@
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>36</v>
       </c>
@@ -859,12 +858,12 @@
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="B5" s="4"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>62</v>
       </c>
@@ -872,7 +871,7 @@
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>38</v>
       </c>
@@ -882,7 +881,7 @@
       <c r="C7" s="25"/>
       <c r="D7"/>
     </row>
-    <row r="8" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>35</v>
       </c>
@@ -892,7 +891,7 @@
       <c r="C8" s="24"/>
       <c r="D8"/>
     </row>
-    <row r="9" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>60</v>
       </c>
@@ -902,7 +901,7 @@
       <c r="C9" s="25"/>
       <c r="D9"/>
     </row>
-    <row r="10" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
         <v>61</v>
       </c>
@@ -912,13 +911,13 @@
       <c r="C10" s="25"/>
       <c r="D10"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="14"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>39</v>
       </c>
@@ -926,7 +925,7 @@
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>40</v>
       </c>
@@ -936,7 +935,7 @@
       <c r="C13" s="22"/>
       <c r="D13"/>
     </row>
-    <row r="14" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>59</v>
       </c>
@@ -946,13 +945,13 @@
       <c r="C14" s="21"/>
       <c r="D14"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="4"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>41</v>
       </c>
@@ -960,7 +959,7 @@
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>48</v>
       </c>
@@ -970,7 +969,7 @@
       <c r="C17" s="21"/>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
         <v>47</v>
       </c>
@@ -980,7 +979,7 @@
       <c r="C18" s="21"/>
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>49</v>
       </c>
@@ -990,13 +989,13 @@
       <c r="C19" s="22"/>
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>3</v>
       </c>
@@ -1004,7 +1003,7 @@
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
     </row>
-    <row r="22" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>9</v>
       </c>
@@ -1014,7 +1013,7 @@
       <c r="C22" s="21"/>
       <c r="D22" s="4"/>
     </row>
-    <row r="23" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>28</v>
       </c>
@@ -1024,7 +1023,7 @@
       <c r="C23" s="21"/>
       <c r="D23" s="4"/>
     </row>
-    <row r="24" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>26</v>
       </c>
@@ -1034,7 +1033,7 @@
       <c r="C24" s="21"/>
       <c r="D24" s="4"/>
     </row>
-    <row r="25" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>27</v>
       </c>
@@ -1044,7 +1043,7 @@
       <c r="C25" s="22"/>
       <c r="D25" s="4"/>
     </row>
-    <row r="26" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>25</v>
       </c>
@@ -1054,7 +1053,7 @@
       <c r="C26" s="21"/>
       <c r="D26" s="4"/>
     </row>
-    <row r="27" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>4</v>
       </c>
@@ -1064,13 +1063,13 @@
       <c r="C27" s="21"/>
       <c r="D27" s="4"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="5"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
         <v>5</v>
       </c>
@@ -1078,7 +1077,7 @@
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
     </row>
-    <row r="30" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>43</v>
       </c>
@@ -1088,7 +1087,7 @@
       <c r="C30" s="21"/>
       <c r="D30" s="4"/>
     </row>
-    <row r="31" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>46</v>
       </c>
@@ -1098,7 +1097,7 @@
       <c r="C31" s="21"/>
       <c r="D31" s="4"/>
     </row>
-    <row r="32" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="17" t="s">
         <v>44</v>
       </c>
@@ -1108,7 +1107,7 @@
       <c r="C32" s="21"/>
       <c r="D32" s="4"/>
     </row>
-    <row r="33" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>45</v>
       </c>
@@ -1118,13 +1117,13 @@
       <c r="C33" s="21"/>
       <c r="D33" s="4"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="11"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
         <v>6</v>
       </c>
@@ -1132,7 +1131,7 @@
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
     </row>
-    <row r="36" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
         <v>11</v>
       </c>
@@ -1142,7 +1141,7 @@
       <c r="C36" s="21"/>
       <c r="D36" s="4"/>
     </row>
-    <row r="37" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>29</v>
       </c>
@@ -1152,7 +1151,7 @@
       <c r="C37" s="21"/>
       <c r="D37" s="4"/>
     </row>
-    <row r="38" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>7</v>
       </c>
@@ -1162,7 +1161,7 @@
       <c r="C38" s="21"/>
       <c r="D38" s="4"/>
     </row>
-    <row r="39" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>8</v>
       </c>
@@ -1172,7 +1171,7 @@
       <c r="C39" s="21"/>
       <c r="D39" s="4"/>
     </row>
-    <row r="40" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>10</v>
       </c>
@@ -1182,7 +1181,7 @@
       <c r="C40" s="21"/>
       <c r="D40" s="4"/>
     </row>
-    <row r="41" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>12</v>
       </c>
@@ -1192,13 +1191,13 @@
       <c r="C41" s="21"/>
       <c r="D41" s="4"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="12" t="s">
         <v>13</v>
       </c>
@@ -1206,7 +1205,7 @@
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
     </row>
-    <row r="44" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>55</v>
       </c>
@@ -1216,13 +1215,13 @@
       <c r="C44" s="21"/>
       <c r="D44" s="4"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" s="12" t="s">
         <v>14</v>
       </c>
@@ -1230,7 +1229,7 @@
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
     </row>
-    <row r="47" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>15</v>
       </c>
@@ -1240,7 +1239,7 @@
       <c r="C47" s="21"/>
       <c r="D47" s="4"/>
     </row>
-    <row r="48" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>16</v>
       </c>
@@ -1250,13 +1249,13 @@
       <c r="C48" s="21"/>
       <c r="D48" s="4"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>17</v>
       </c>
@@ -1264,7 +1263,7 @@
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
     </row>
-    <row r="51" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>24</v>
       </c>
@@ -1274,17 +1273,17 @@
       <c r="C51" s="21"/>
       <c r="D51" s="4"/>
     </row>
-    <row r="52" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B52" s="4">
         <v>3</v>
       </c>
-      <c r="C52" s="22"/>
+      <c r="C52" s="21"/>
       <c r="D52" s="4"/>
     </row>
-    <row r="53" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>18</v>
       </c>
@@ -1294,7 +1293,7 @@
       <c r="C53" s="21"/>
       <c r="D53" s="4"/>
     </row>
-    <row r="54" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
         <v>20</v>
       </c>
@@ -1304,7 +1303,7 @@
       <c r="C54" s="21"/>
       <c r="D54" s="4"/>
     </row>
-    <row r="55" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>21</v>
       </c>
@@ -1314,7 +1313,7 @@
       <c r="C55" s="21"/>
       <c r="D55" s="4"/>
     </row>
-    <row r="56" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>22</v>
       </c>
@@ -1324,13 +1323,13 @@
       <c r="C56" s="21"/>
       <c r="D56" s="4"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>23</v>
       </c>
@@ -1338,7 +1337,7 @@
       <c r="C58" s="4"/>
       <c r="D58" s="4"/>
     </row>
-    <row r="59" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
         <v>34</v>
       </c>
@@ -1348,13 +1347,13 @@
       <c r="C59" s="21"/>
       <c r="D59" s="4"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>66</v>
       </c>
@@ -1362,7 +1361,7 @@
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
     </row>
-    <row r="62" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>42</v>
       </c>
@@ -1372,7 +1371,7 @@
       <c r="C62" s="21"/>
       <c r="D62" s="4"/>
     </row>
-    <row r="63" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>35</v>
       </c>
@@ -1382,17 +1381,17 @@
       <c r="C63" s="20"/>
       <c r="D63" s="4"/>
     </row>
-    <row r="64" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A64" s="5" t="s">
+    <row r="64" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A64" s="21" t="s">
         <v>58</v>
       </c>
       <c r="B64" s="4">
         <v>1</v>
       </c>
-      <c r="C64" s="20"/>
+      <c r="C64" s="21"/>
       <c r="D64" s="4"/>
     </row>
-    <row r="65" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A65" s="13" t="s">
         <v>51</v>
       </c>
@@ -1402,13 +1401,13 @@
       <c r="C65" s="22"/>
       <c r="D65" s="4"/>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="7"/>
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
       <c r="D66" s="4"/>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>50</v>
       </c>
@@ -1416,7 +1415,7 @@
       <c r="C67" s="4"/>
       <c r="D67" s="4"/>
     </row>
-    <row r="68" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
         <v>70</v>
       </c>
@@ -1426,13 +1425,13 @@
       <c r="C68" s="22"/>
       <c r="D68" s="4"/>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="7"/>
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
       <c r="D69" s="4"/>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A70" s="9" t="s">
         <v>52</v>
       </c>
@@ -1440,7 +1439,7 @@
       <c r="C70" s="4"/>
       <c r="D70" s="4"/>
     </row>
-    <row r="71" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
         <v>56</v>
       </c>
@@ -1450,7 +1449,7 @@
       <c r="C71" s="23"/>
       <c r="D71" s="4"/>
     </row>
-    <row r="72" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
         <v>68</v>
       </c>
@@ -1460,7 +1459,7 @@
       <c r="C72" s="23"/>
       <c r="D72" s="4"/>
     </row>
-    <row r="73" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
         <v>57</v>
       </c>
@@ -1470,13 +1469,13 @@
       <c r="C73" s="23"/>
       <c r="D73" s="4"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="5"/>
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
       <c r="D74" s="4"/>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>53</v>
       </c>
@@ -1484,7 +1483,7 @@
       <c r="C75" s="4"/>
       <c r="D75" s="4"/>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
         <v>64</v>
       </c>
@@ -1492,7 +1491,7 @@
       <c r="C76" s="4"/>
       <c r="D76" s="4"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
         <v>67</v>
       </c>
@@ -1500,7 +1499,7 @@
       <c r="C77" s="8"/>
       <c r="D77" s="8"/>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="7" t="s">
         <v>69</v>
       </c>
@@ -1508,7 +1507,7 @@
       <c r="C78" s="4"/>
       <c r="D78" s="4"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>0</v>
       </c>
@@ -1525,7 +1524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="26" t="s">
         <v>54</v>
       </c>
@@ -1533,7 +1532,7 @@
       <c r="C81" s="26"/>
       <c r="D81" s="26"/>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="2"/>
     </row>
   </sheetData>

--- a/phase 2 grading.xlsx
+++ b/phase 2 grading.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin\home\stoller\courses\distrib-sys-2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PREETHAM\Desktop\ACADEMIC\ds\project\dist_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8D32355-FA39-4913-B0EA-558F3D00C11F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C7E8A45-EF90-4BAC-9EDE-A24D2F82D03C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19425" yWindow="90" windowWidth="18030" windowHeight="20910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -263,7 +263,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -319,8 +319,29 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -339,6 +360,21 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="7">
     <border>
@@ -429,10 +465,13 @@
       </diagonal>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -451,16 +490,21 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="6" xfId="3" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -741,8 +785,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F83"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A73" sqref="A73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -759,19 +803,19 @@
       <c r="A1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="19" t="s">
         <v>63</v>
       </c>
     </row>
@@ -779,19 +823,19 @@
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="21" t="s">
+      <c r="F2" s="19" t="s">
         <v>32</v>
       </c>
     </row>
@@ -831,7 +875,7 @@
       <c r="B7" s="4">
         <v>3</v>
       </c>
-      <c r="C7" s="18"/>
+      <c r="C7" s="21"/>
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:6" ht="15" x14ac:dyDescent="0.25">
@@ -841,7 +885,7 @@
       <c r="B8" s="4">
         <v>3</v>
       </c>
-      <c r="C8" s="18"/>
+      <c r="C8" s="21"/>
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.25">
@@ -851,17 +895,17 @@
       <c r="B9" s="4">
         <v>2</v>
       </c>
-      <c r="C9" s="18"/>
+      <c r="C9" s="21"/>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
         <v>61</v>
       </c>
       <c r="B10" s="4">
         <v>2</v>
       </c>
-      <c r="C10" s="18"/>
+      <c r="C10" s="21"/>
       <c r="D10" s="4"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -885,7 +929,7 @@
       <c r="B13" s="4">
         <v>3</v>
       </c>
-      <c r="C13" s="1"/>
+      <c r="C13" s="22"/>
       <c r="D13" s="1"/>
     </row>
     <row r="14" spans="1:6" ht="15" x14ac:dyDescent="0.25">
@@ -895,7 +939,7 @@
       <c r="B14" s="4">
         <v>2</v>
       </c>
-      <c r="C14" s="1"/>
+      <c r="C14" s="22"/>
       <c r="D14" s="1"/>
     </row>
     <row r="15" spans="1:6" ht="15" x14ac:dyDescent="0.25">
@@ -919,7 +963,7 @@
       <c r="B17" s="4">
         <v>3</v>
       </c>
-      <c r="C17" s="1"/>
+      <c r="C17" s="22"/>
       <c r="D17" s="1"/>
     </row>
     <row r="18" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -929,7 +973,7 @@
       <c r="B18" s="4">
         <v>1</v>
       </c>
-      <c r="C18" s="1"/>
+      <c r="C18" s="22"/>
       <c r="D18" s="1"/>
     </row>
     <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -939,7 +983,7 @@
       <c r="B19" s="4">
         <v>2</v>
       </c>
-      <c r="C19" s="1"/>
+      <c r="C19" s="22"/>
       <c r="D19" s="1"/>
     </row>
     <row r="20" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -956,64 +1000,64 @@
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B22" s="4">
         <v>1</v>
       </c>
-      <c r="C22" s="4"/>
+      <c r="C22" s="22"/>
       <c r="D22" s="4"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>28</v>
       </c>
       <c r="B23" s="4">
         <v>1</v>
       </c>
-      <c r="C23" s="4"/>
+      <c r="C23" s="22"/>
       <c r="D23" s="4"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B24" s="4">
         <v>3</v>
       </c>
-      <c r="C24" s="4"/>
+      <c r="C24" s="22"/>
       <c r="D24" s="4"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>27</v>
       </c>
       <c r="B25" s="4">
         <v>2</v>
       </c>
-      <c r="C25" s="4"/>
+      <c r="C25" s="22"/>
       <c r="D25" s="4"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>25</v>
       </c>
       <c r="B26" s="4">
         <v>1</v>
       </c>
-      <c r="C26" s="4"/>
+      <c r="C26" s="22"/>
       <c r="D26" s="4"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B27" s="4">
         <v>1</v>
       </c>
-      <c r="C27" s="4"/>
+      <c r="C27" s="22"/>
       <c r="D27" s="4"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -1030,44 +1074,44 @@
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>43</v>
       </c>
       <c r="B30" s="4">
         <v>2</v>
       </c>
-      <c r="C30" s="4"/>
+      <c r="C30" s="22"/>
       <c r="D30" s="4"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>46</v>
       </c>
       <c r="B31" s="4">
         <v>1</v>
       </c>
-      <c r="C31" s="4"/>
+      <c r="C31" s="22"/>
       <c r="D31" s="4"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="17" t="s">
         <v>44</v>
       </c>
       <c r="B32" s="4">
         <v>4</v>
       </c>
-      <c r="C32" s="4"/>
+      <c r="C32" s="22"/>
       <c r="D32" s="4"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>45</v>
       </c>
       <c r="B33" s="4">
         <v>1</v>
       </c>
-      <c r="C33" s="4"/>
+      <c r="C33" s="22"/>
       <c r="D33" s="4"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -1084,64 +1128,64 @@
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B36" s="4">
         <v>1</v>
       </c>
-      <c r="C36" s="4"/>
+      <c r="C36" s="22"/>
       <c r="D36" s="4"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B37" s="4">
         <v>4</v>
       </c>
-      <c r="C37" s="4"/>
+      <c r="C37" s="22"/>
       <c r="D37" s="4"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B38" s="4">
         <v>1</v>
       </c>
-      <c r="C38" s="4"/>
+      <c r="C38" s="22"/>
       <c r="D38" s="4"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B39" s="4">
         <v>2</v>
       </c>
-      <c r="C39" s="4"/>
+      <c r="C39" s="22"/>
       <c r="D39" s="4"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B40" s="4">
         <v>2</v>
       </c>
-      <c r="C40" s="4"/>
+      <c r="C40" s="22"/>
       <c r="D40" s="4"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B41" s="4">
         <v>1</v>
       </c>
-      <c r="C41" s="4"/>
+      <c r="C41" s="22"/>
       <c r="D41" s="4"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
@@ -1158,14 +1202,14 @@
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>55</v>
       </c>
       <c r="B44" s="4">
         <v>4</v>
       </c>
-      <c r="C44" s="4"/>
+      <c r="C44" s="22"/>
       <c r="D44" s="4"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
@@ -1182,24 +1226,24 @@
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B47" s="4">
         <v>3</v>
       </c>
-      <c r="C47" s="4"/>
+      <c r="C47" s="22"/>
       <c r="D47" s="4"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B48" s="4">
         <v>2</v>
       </c>
-      <c r="C48" s="4"/>
+      <c r="C48" s="22"/>
       <c r="D48" s="4"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
@@ -1216,64 +1260,64 @@
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B51" s="4">
         <v>2</v>
       </c>
-      <c r="C51" s="4"/>
+      <c r="C51" s="22"/>
       <c r="D51" s="4"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B52" s="4">
         <v>3</v>
       </c>
-      <c r="C52" s="4"/>
+      <c r="C52" s="22"/>
       <c r="D52" s="4"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B53" s="4">
         <v>2</v>
       </c>
-      <c r="C53" s="4"/>
+      <c r="C53" s="22"/>
       <c r="D53" s="4"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B54" s="4">
         <v>4</v>
       </c>
-      <c r="C54" s="4"/>
+      <c r="C54" s="22"/>
       <c r="D54" s="4"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B55" s="4">
         <v>2</v>
       </c>
-      <c r="C55" s="4"/>
+      <c r="C55" s="22"/>
       <c r="D55" s="4"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B56" s="4">
         <v>2</v>
       </c>
-      <c r="C56" s="4"/>
+      <c r="C56" s="22"/>
       <c r="D56" s="4"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
@@ -1290,14 +1334,14 @@
       <c r="C58" s="4"/>
       <c r="D58" s="4"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
         <v>34</v>
       </c>
       <c r="B59" s="4">
         <v>3</v>
       </c>
-      <c r="C59" s="4"/>
+      <c r="C59" s="22"/>
       <c r="D59" s="4"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
@@ -1314,14 +1358,14 @@
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B62" s="4">
         <v>1</v>
       </c>
-      <c r="C62" s="4"/>
+      <c r="C62" s="22"/>
       <c r="D62" s="4"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
@@ -1334,24 +1378,24 @@
       <c r="C63" s="4"/>
       <c r="D63" s="4"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
         <v>58</v>
       </c>
       <c r="B64" s="4">
         <v>1</v>
       </c>
-      <c r="C64" s="4"/>
+      <c r="C64" s="22"/>
       <c r="D64" s="4"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A65" s="13" t="s">
         <v>51</v>
       </c>
       <c r="B65" s="4">
         <v>3</v>
       </c>
-      <c r="C65" s="4"/>
+      <c r="C65" s="22"/>
       <c r="D65" s="4"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
@@ -1368,14 +1412,14 @@
       <c r="C67" s="4"/>
       <c r="D67" s="4"/>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
         <v>70</v>
       </c>
       <c r="B68" s="4">
         <v>3</v>
       </c>
-      <c r="C68" s="4"/>
+      <c r="C68" s="22"/>
       <c r="D68" s="4"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
@@ -1392,34 +1436,34 @@
       <c r="C70" s="4"/>
       <c r="D70" s="4"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
         <v>56</v>
       </c>
       <c r="B71" s="4">
         <v>3</v>
       </c>
-      <c r="C71" s="18"/>
+      <c r="C71" s="23"/>
       <c r="D71" s="4"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
         <v>68</v>
       </c>
       <c r="B72" s="4">
         <v>7</v>
       </c>
-      <c r="C72" s="18"/>
+      <c r="C72" s="23"/>
       <c r="D72" s="4"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
         <v>57</v>
       </c>
       <c r="B73" s="4">
         <v>3</v>
       </c>
-      <c r="C73" s="18"/>
+      <c r="C73" s="23"/>
       <c r="D73" s="4"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
@@ -1478,12 +1522,12 @@
       </c>
     </row>
     <row r="81" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="19" t="s">
+      <c r="A81" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="B81" s="19"/>
-      <c r="C81" s="19"/>
-      <c r="D81" s="19"/>
+      <c r="B81" s="20"/>
+      <c r="C81" s="20"/>
+      <c r="D81" s="20"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="2"/>

--- a/phase 2 grading.xlsx
+++ b/phase 2 grading.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PREETHAM\Desktop\ACADEMIC\ds\project\dist_project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PREETHAM\Desktop\ACADEMIC\ds\project\dist_project-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C7E8A45-EF90-4BAC-9EDE-A24D2F82D03C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9DA7DE8-B6D3-4F01-B377-522A724AF9B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="72">
   <si>
     <t>TOTAL</t>
   </si>
@@ -258,12 +258,15 @@
   <si>
     <t>messge loss, message delay, SetAttr misbehavior</t>
   </si>
+  <si>
+    <t>Not sure about safety and liveness of the pseudocode</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -321,27 +324,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C5700"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="7">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -362,17 +351,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -465,13 +444,11 @@
       </diagonal>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -494,17 +471,20 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="6" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="4">
-    <cellStyle name="Bad" xfId="2" builtinId="27"/>
-    <cellStyle name="Good" xfId="1" builtinId="26"/>
-    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
+  <cellStyles count="2">
+    <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -785,28 +765,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A73" sqref="A73"/>
+    <sheetView tabSelected="1" zoomScale="117" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="74.85546875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="74.88671875" style="3" customWidth="1"/>
     <col min="2" max="2" width="6" style="3" customWidth="1"/>
-    <col min="3" max="3" width="7.42578125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="7.28515625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="3"/>
+    <col min="3" max="3" width="7.44140625" style="24" customWidth="1"/>
+    <col min="4" max="4" width="7.33203125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="9.109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B1" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="20" t="s">
         <v>30</v>
       </c>
       <c r="D1" s="18" t="s">
@@ -819,14 +799,14 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="20" t="s">
         <v>31</v>
       </c>
       <c r="D2" s="18" t="s">
@@ -839,672 +819,761 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="4"/>
-      <c r="C3" s="1"/>
+      <c r="C3" s="21"/>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>36</v>
       </c>
       <c r="B4" s="4"/>
-      <c r="C4" s="1"/>
+      <c r="C4" s="21"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" s="4"/>
-      <c r="C5" s="1"/>
+      <c r="C5" s="21"/>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B6" s="4"/>
-      <c r="C6" s="1"/>
+      <c r="C6" s="21"/>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>38</v>
       </c>
       <c r="B7" s="4">
         <v>3</v>
       </c>
-      <c r="C7" s="21"/>
+      <c r="C7" s="22">
+        <v>3</v>
+      </c>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>35</v>
       </c>
       <c r="B8" s="4">
         <v>3</v>
       </c>
-      <c r="C8" s="21"/>
+      <c r="C8" s="22">
+        <v>2</v>
+      </c>
       <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="E8" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>60</v>
       </c>
       <c r="B9" s="4">
         <v>2</v>
       </c>
-      <c r="C9" s="21"/>
+      <c r="C9" s="22">
+        <v>2</v>
+      </c>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" s="16" t="s">
         <v>61</v>
       </c>
       <c r="B10" s="4">
         <v>2</v>
       </c>
-      <c r="C10" s="21"/>
+      <c r="C10" s="22">
+        <v>2</v>
+      </c>
       <c r="D10" s="4"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="14"/>
       <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
+      <c r="C11" s="13"/>
       <c r="D11" s="4"/>
     </row>
-    <row r="12" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B12" s="4"/>
-      <c r="C12" s="1"/>
+      <c r="C12" s="21"/>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>40</v>
       </c>
       <c r="B13" s="4">
         <v>3</v>
       </c>
-      <c r="C13" s="22"/>
+      <c r="C13">
+        <v>3</v>
+      </c>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>59</v>
       </c>
       <c r="B14" s="4">
         <v>2</v>
       </c>
-      <c r="C14" s="22"/>
+      <c r="C14">
+        <v>2</v>
+      </c>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="5"/>
       <c r="B15" s="4"/>
-      <c r="C15" s="1"/>
+      <c r="C15"/>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B16" s="4"/>
-      <c r="C16" s="1"/>
+      <c r="C16"/>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>48</v>
       </c>
       <c r="B17" s="4">
         <v>3</v>
       </c>
-      <c r="C17" s="22"/>
+      <c r="C17">
+        <v>3</v>
+      </c>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A18" s="16" t="s">
         <v>47</v>
       </c>
       <c r="B18" s="4">
         <v>1</v>
       </c>
-      <c r="C18" s="22"/>
+      <c r="C18">
+        <v>1</v>
+      </c>
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>49</v>
       </c>
       <c r="B19" s="4">
         <v>2</v>
       </c>
-      <c r="C19" s="22"/>
+      <c r="C19">
+        <v>2</v>
+      </c>
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
-      <c r="C20" s="1"/>
+      <c r="C20"/>
       <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
+      <c r="C21"/>
       <c r="D21" s="4"/>
     </row>
-    <row r="22" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B22" s="4">
         <v>1</v>
       </c>
-      <c r="C22" s="22"/>
+      <c r="C22">
+        <v>1</v>
+      </c>
       <c r="D22" s="4"/>
     </row>
-    <row r="23" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>28</v>
       </c>
       <c r="B23" s="4">
         <v>1</v>
       </c>
-      <c r="C23" s="22"/>
+      <c r="C23">
+        <v>1</v>
+      </c>
       <c r="D23" s="4"/>
     </row>
-    <row r="24" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B24" s="4">
         <v>3</v>
       </c>
-      <c r="C24" s="22"/>
+      <c r="C24">
+        <v>3</v>
+      </c>
       <c r="D24" s="4"/>
     </row>
-    <row r="25" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>27</v>
       </c>
       <c r="B25" s="4">
         <v>2</v>
       </c>
-      <c r="C25" s="22"/>
+      <c r="C25">
+        <v>2</v>
+      </c>
       <c r="D25" s="4"/>
     </row>
-    <row r="26" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>25</v>
       </c>
       <c r="B26" s="4">
         <v>1</v>
       </c>
-      <c r="C26" s="22"/>
+      <c r="C26">
+        <v>1</v>
+      </c>
       <c r="D26" s="4"/>
     </row>
-    <row r="27" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B27" s="4">
         <v>1</v>
       </c>
-      <c r="C27" s="22"/>
+      <c r="C27">
+        <v>1</v>
+      </c>
       <c r="D27" s="4"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A28" s="5"/>
       <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
+      <c r="C28"/>
       <c r="D28" s="4"/>
     </row>
-    <row r="29" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A29" s="10" t="s">
         <v>5</v>
       </c>
       <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
+      <c r="C29"/>
       <c r="D29" s="4"/>
     </row>
-    <row r="30" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
         <v>43</v>
       </c>
       <c r="B30" s="4">
         <v>2</v>
       </c>
-      <c r="C30" s="22"/>
+      <c r="C30">
+        <v>2</v>
+      </c>
       <c r="D30" s="4"/>
     </row>
-    <row r="31" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>46</v>
       </c>
       <c r="B31" s="4">
         <v>1</v>
       </c>
-      <c r="C31" s="22"/>
+      <c r="C31">
+        <v>1</v>
+      </c>
       <c r="D31" s="4"/>
     </row>
-    <row r="32" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A32" s="17" t="s">
         <v>44</v>
       </c>
       <c r="B32" s="4">
         <v>4</v>
       </c>
-      <c r="C32" s="22"/>
+      <c r="C32">
+        <v>4</v>
+      </c>
       <c r="D32" s="4"/>
     </row>
-    <row r="33" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>45</v>
       </c>
       <c r="B33" s="4">
         <v>1</v>
       </c>
-      <c r="C33" s="22"/>
+      <c r="C33">
+        <v>1</v>
+      </c>
       <c r="D33" s="4"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A34" s="11"/>
       <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
+      <c r="C34"/>
       <c r="D34" s="4"/>
     </row>
-    <row r="35" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A35" s="9" t="s">
         <v>6</v>
       </c>
       <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
+      <c r="C35"/>
       <c r="D35" s="4"/>
     </row>
-    <row r="36" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B36" s="4">
         <v>1</v>
       </c>
-      <c r="C36" s="22"/>
+      <c r="C36">
+        <v>1</v>
+      </c>
       <c r="D36" s="4"/>
     </row>
-    <row r="37" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B37" s="4">
         <v>4</v>
       </c>
-      <c r="C37" s="22"/>
+      <c r="C37">
+        <v>4</v>
+      </c>
       <c r="D37" s="4"/>
     </row>
-    <row r="38" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B38" s="4">
         <v>1</v>
       </c>
-      <c r="C38" s="22"/>
+      <c r="C38">
+        <v>1</v>
+      </c>
       <c r="D38" s="4"/>
     </row>
-    <row r="39" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B39" s="4">
         <v>2</v>
       </c>
-      <c r="C39" s="22"/>
+      <c r="C39">
+        <v>2</v>
+      </c>
       <c r="D39" s="4"/>
     </row>
-    <row r="40" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B40" s="4">
         <v>2</v>
       </c>
-      <c r="C40" s="22"/>
+      <c r="C40">
+        <v>2</v>
+      </c>
       <c r="D40" s="4"/>
     </row>
-    <row r="41" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B41" s="4">
         <v>1</v>
       </c>
-      <c r="C41" s="22"/>
+      <c r="C41">
+        <v>1</v>
+      </c>
       <c r="D41" s="4"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
+      <c r="C42"/>
       <c r="D42" s="4"/>
     </row>
-    <row r="43" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A43" s="12" t="s">
         <v>13</v>
       </c>
       <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
+      <c r="C43"/>
       <c r="D43" s="4"/>
     </row>
-    <row r="44" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
         <v>55</v>
       </c>
       <c r="B44" s="4">
         <v>4</v>
       </c>
-      <c r="C44" s="22"/>
+      <c r="C44">
+        <v>4</v>
+      </c>
       <c r="D44" s="4"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
-      <c r="C45" s="4"/>
+      <c r="C45"/>
       <c r="D45" s="4"/>
     </row>
-    <row r="46" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A46" s="12" t="s">
         <v>14</v>
       </c>
       <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
+      <c r="C46"/>
       <c r="D46" s="4"/>
     </row>
-    <row r="47" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B47" s="4">
         <v>3</v>
       </c>
-      <c r="C47" s="22"/>
+      <c r="C47">
+        <v>3</v>
+      </c>
       <c r="D47" s="4"/>
     </row>
-    <row r="48" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B48" s="4">
         <v>2</v>
       </c>
-      <c r="C48" s="22"/>
+      <c r="C48" s="24">
+        <v>2</v>
+      </c>
       <c r="D48" s="4"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
-      <c r="C49" s="4"/>
+      <c r="C49" s="13"/>
       <c r="D49" s="4"/>
     </row>
-    <row r="50" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B50" s="4"/>
-      <c r="C50" s="4"/>
+      <c r="C50" s="13"/>
       <c r="D50" s="4"/>
     </row>
-    <row r="51" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B51" s="4">
         <v>2</v>
       </c>
-      <c r="C51" s="22"/>
+      <c r="C51">
+        <v>2</v>
+      </c>
       <c r="D51" s="4"/>
     </row>
-    <row r="52" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B52" s="4">
         <v>3</v>
       </c>
-      <c r="C52" s="22"/>
+      <c r="C52" s="26">
+        <v>3</v>
+      </c>
       <c r="D52" s="4"/>
     </row>
-    <row r="53" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B53" s="4">
         <v>2</v>
       </c>
-      <c r="C53" s="22"/>
+      <c r="C53" s="26">
+        <v>2</v>
+      </c>
       <c r="D53" s="4"/>
     </row>
-    <row r="54" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B54" s="4">
         <v>4</v>
       </c>
-      <c r="C54" s="22"/>
+      <c r="C54" s="26">
+        <v>4</v>
+      </c>
       <c r="D54" s="4"/>
     </row>
-    <row r="55" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B55" s="4">
         <v>2</v>
       </c>
-      <c r="C55" s="22"/>
+      <c r="C55" s="26">
+        <v>2</v>
+      </c>
       <c r="D55" s="4"/>
     </row>
-    <row r="56" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B56" s="4">
         <v>2</v>
       </c>
-      <c r="C56" s="22"/>
+      <c r="C56" s="26">
+        <v>2</v>
+      </c>
       <c r="D56" s="4"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
-      <c r="C57" s="4"/>
+      <c r="C57"/>
       <c r="D57" s="4"/>
     </row>
-    <row r="58" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B58" s="4"/>
-      <c r="C58" s="4"/>
+      <c r="C58"/>
       <c r="D58" s="4"/>
     </row>
-    <row r="59" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
         <v>34</v>
       </c>
       <c r="B59" s="4">
         <v>3</v>
       </c>
-      <c r="C59" s="22"/>
+      <c r="C59" s="26">
+        <v>3</v>
+      </c>
       <c r="D59" s="4"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
-      <c r="C60" s="4"/>
+      <c r="C60"/>
       <c r="D60" s="4"/>
     </row>
-    <row r="61" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B61" s="4"/>
-      <c r="C61" s="4"/>
+      <c r="C61"/>
       <c r="D61" s="4"/>
     </row>
-    <row r="62" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B62" s="4">
         <v>1</v>
       </c>
-      <c r="C62" s="22"/>
+      <c r="C62">
+        <v>1</v>
+      </c>
       <c r="D62" s="4"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
         <v>35</v>
       </c>
       <c r="B63" s="4">
         <v>3</v>
       </c>
-      <c r="C63" s="4"/>
+      <c r="C63">
+        <v>0</v>
+      </c>
       <c r="D63" s="4"/>
     </row>
-    <row r="64" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A64" s="5" t="s">
         <v>58</v>
       </c>
       <c r="B64" s="4">
         <v>1</v>
       </c>
-      <c r="C64" s="22"/>
+      <c r="C64">
+        <v>1</v>
+      </c>
       <c r="D64" s="4"/>
     </row>
-    <row r="65" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A65" s="13" t="s">
         <v>51</v>
       </c>
       <c r="B65" s="4">
         <v>3</v>
       </c>
-      <c r="C65" s="22"/>
+      <c r="C65">
+        <v>3</v>
+      </c>
       <c r="D65" s="4"/>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A66" s="7"/>
       <c r="B66" s="4"/>
-      <c r="C66" s="4"/>
+      <c r="C66"/>
       <c r="D66" s="4"/>
     </row>
-    <row r="67" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B67" s="4"/>
-      <c r="C67" s="4"/>
+      <c r="C67"/>
       <c r="D67" s="4"/>
     </row>
-    <row r="68" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
         <v>70</v>
       </c>
       <c r="B68" s="4">
         <v>3</v>
       </c>
-      <c r="C68" s="22"/>
+      <c r="C68">
+        <v>3</v>
+      </c>
       <c r="D68" s="4"/>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A69" s="7"/>
       <c r="B69" s="4"/>
-      <c r="C69" s="4"/>
+      <c r="C69"/>
       <c r="D69" s="4"/>
     </row>
-    <row r="70" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A70" s="9" t="s">
         <v>52</v>
       </c>
       <c r="B70" s="4"/>
-      <c r="C70" s="4"/>
+      <c r="C70"/>
       <c r="D70" s="4"/>
     </row>
-    <row r="71" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
         <v>56</v>
       </c>
       <c r="B71" s="4">
         <v>3</v>
       </c>
-      <c r="C71" s="23"/>
+      <c r="C71">
+        <v>3</v>
+      </c>
       <c r="D71" s="4"/>
     </row>
-    <row r="72" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A72" s="5" t="s">
         <v>68</v>
       </c>
       <c r="B72" s="4">
         <v>7</v>
       </c>
-      <c r="C72" s="23"/>
+      <c r="C72">
+        <v>7</v>
+      </c>
       <c r="D72" s="4"/>
     </row>
-    <row r="73" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A73" s="5" t="s">
         <v>57</v>
       </c>
       <c r="B73" s="4">
         <v>3</v>
       </c>
-      <c r="C73" s="23"/>
+      <c r="C73">
+        <v>3</v>
+      </c>
       <c r="D73" s="4"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="5"/>
       <c r="B74" s="4"/>
-      <c r="C74" s="4"/>
+      <c r="C74" s="13"/>
       <c r="D74" s="4"/>
     </row>
-    <row r="75" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B75" s="4"/>
-      <c r="C75" s="4"/>
+      <c r="C75" s="13"/>
       <c r="D75" s="4"/>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
         <v>64</v>
       </c>
       <c r="B76" s="4"/>
-      <c r="C76" s="4"/>
+      <c r="C76" s="13"/>
       <c r="D76" s="4"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
         <v>67</v>
       </c>
       <c r="B77" s="4"/>
-      <c r="C77" s="8"/>
+      <c r="C77" s="23"/>
       <c r="D77" s="8"/>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="7" t="s">
         <v>69</v>
       </c>
       <c r="B78" s="4"/>
-      <c r="C78" s="4"/>
+      <c r="C78" s="13"/>
       <c r="D78" s="4"/>
     </row>
-    <row r="79" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>0</v>
       </c>
@@ -1512,24 +1581,24 @@
         <f>SUM(B5:B78)</f>
         <v>100</v>
       </c>
-      <c r="C79" s="4">
+      <c r="C79" s="13">
         <f>SUM(C5:C78)</f>
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="D79" s="4">
         <f>SUM(D5:D78)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="20" t="s">
+    <row r="81" spans="1:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="B81" s="20"/>
-      <c r="C81" s="20"/>
-      <c r="D81" s="20"/>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B81" s="25"/>
+      <c r="C81" s="25"/>
+      <c r="D81" s="25"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="2"/>
     </row>
   </sheetData>
